--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edo\university\mscthesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF60EB85-125F-4794-BCFD-05089C06C08F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F3F835-5F4F-445A-82A3-9BC41C93ABE4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22104" windowHeight="9660" xr2:uid="{FC890C5A-680E-4C92-8599-9F702E4A7261}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="38">
   <si>
     <t>features</t>
   </si>
@@ -96,12 +96,6 @@
     <t>min</t>
   </si>
   <si>
-    <t>trendstd</t>
-  </si>
-  <si>
-    <t>notrendstd</t>
-  </si>
-  <si>
     <t>F5</t>
   </si>
   <si>
@@ -117,10 +111,34 @@
     <t>F1</t>
   </si>
   <si>
-    <t>Trend</t>
+    <t>MOST</t>
   </si>
   <si>
-    <t>No Trend</t>
+    <t>sdf</t>
+  </si>
+  <si>
+    <t>Trend/MOST</t>
+  </si>
+  <si>
+    <t>trendstdmost</t>
+  </si>
+  <si>
+    <t>No Trend/MOST</t>
+  </si>
+  <si>
+    <t>notrendstdmost</t>
+  </si>
+  <si>
+    <t>Trend/All</t>
+  </si>
+  <si>
+    <t>trendstdall</t>
+  </si>
+  <si>
+    <t>No Trend/All</t>
+  </si>
+  <si>
+    <t>notrendstdall</t>
   </si>
 </sst>
 </file>
@@ -156,9 +174,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -190,62 +209,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Performance of Ridge Regression</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -261,14 +225,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Trend</c:v>
+                  <c:v>Trend/MOST</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent6"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -282,42 +246,48 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$P$2:$P$5</c:f>
+                <c:f>Sheet1!$P$2:$P$6</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
+                  <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>2.0567999999999999E-2</c:v>
+                    <c:v>4.1135999999999999E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2.0021000000000001E-2</c:v>
+                    <c:v>4.0042000000000001E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2.7536999999999999E-2</c:v>
+                    <c:v>5.5073999999999998E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>2.2568999999999999E-2</c:v>
+                    <c:v>4.5137999999999998E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.6612000000000001E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$P$2:$P$5</c:f>
+                <c:f>Sheet1!$P$2:$P$6</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
+                  <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>2.0567999999999999E-2</c:v>
+                    <c:v>4.1135999999999999E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2.0021000000000001E-2</c:v>
+                    <c:v>4.0042000000000001E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2.7536999999999999E-2</c:v>
+                    <c:v>5.5073999999999998E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>2.2568999999999999E-2</c:v>
+                    <c:v>4.5137999999999998E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.6612000000000001E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -361,10 +331,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$2:$O$5</c:f>
+              <c:f>Sheet1!$O$2:$O$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.26961800000000002</c:v>
                 </c:pt>
@@ -376,6 +346,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.27436199999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.26810099999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -395,14 +368,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>No Trend</c:v>
+                  <c:v>No Trend/MOST</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent5"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -421,19 +394,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>1.9522999999999999E-2</c:v>
+                    <c:v>3.9045999999999997E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2.4171000000000002E-2</c:v>
+                    <c:v>4.8342000000000003E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.5252E-2</c:v>
+                    <c:v>3.0504E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.5015000000000001E-2</c:v>
+                    <c:v>3.0030000000000001E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>1.5015000000000001E-2</c:v>
+                    <c:v>3.0030000000000001E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -445,19 +418,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>1.9522999999999999E-2</c:v>
+                    <c:v>3.9045999999999997E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2.4171000000000002E-2</c:v>
+                    <c:v>4.8342000000000003E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.5252E-2</c:v>
+                    <c:v>3.0504E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.5015000000000001E-2</c:v>
+                    <c:v>3.0030000000000001E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>1.5015000000000001E-2</c:v>
+                    <c:v>3.0030000000000001E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -529,6 +502,118 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Trend/All</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$2:$S$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.61414999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.62557099999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.62321899999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.63110200000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.62966</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B963-414B-8E33-73206AC8415E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$U$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>No Trend/All</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$U$2:$U$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.61185</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.62497199999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.632606</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.63253400000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.63186399999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-B963-414B-8E33-73206AC8415E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -541,6 +626,137 @@
         <c:axId val="1903097263"/>
         <c:axId val="1997276271"/>
       </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MOST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$10:$N$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.33205600000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33205600000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33205600000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33205600000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.33205600000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B963-414B-8E33-73206AC8415E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sdf</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:prstDash val="lgDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$10:$O$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.297564</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.297564</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.297564</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.297564</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.297564</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B963-414B-8E33-73206AC8415E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1903097263"/>
+        <c:axId val="1997276271"/>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="1903097263"/>
         <c:scaling>
@@ -596,7 +812,6 @@
         <c:axId val="1997276271"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0.24000000000000002"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -669,7 +884,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -714,6 +929,10 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -759,12 +978,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -788,13 +1002,10 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -1334,16 +1545,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>180656</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>365760</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1668,15 +1879,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8B9FA23-C9B6-4199-8CB4-5A817BF7FD63}">
-  <dimension ref="A1:R64"/>
+  <dimension ref="A1:V141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Y7" sqref="Y7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1717,16 +1928,28 @@
         <v>30</v>
       </c>
       <c r="P1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="Q1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="S1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1764,26 +1987,42 @@
         <v>0.70666099999999998</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O2">
         <f>F4</f>
         <v>0.26961800000000002</v>
       </c>
       <c r="P2">
-        <f>G4</f>
-        <v>2.0567999999999999E-2</v>
+        <f>G4*2</f>
+        <v>4.1135999999999999E-2</v>
       </c>
       <c r="Q2">
         <f>F11</f>
         <v>0.26996500000000001</v>
       </c>
       <c r="R2">
-        <f>G11</f>
-        <v>1.9522999999999999E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+        <f>G11*2</f>
+        <v>3.9045999999999997E-2</v>
+      </c>
+      <c r="S2">
+        <f>F74</f>
+        <v>0.61414999999999997</v>
+      </c>
+      <c r="T2">
+        <f>G74</f>
+        <v>7.5661999999999993E-2</v>
+      </c>
+      <c r="U2">
+        <f>F81</f>
+        <v>0.61185</v>
+      </c>
+      <c r="V2">
+        <f>G81</f>
+        <v>7.1894E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
         <v>16</v>
       </c>
@@ -1812,26 +2051,42 @@
         <v>0.37535000000000002</v>
       </c>
       <c r="N3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="O3">
         <f>F18</f>
         <v>0.27293099999999998</v>
       </c>
       <c r="P3">
-        <f>G18</f>
-        <v>2.0021000000000001E-2</v>
+        <f>G18*2</f>
+        <v>4.0042000000000001E-2</v>
       </c>
       <c r="Q3">
         <f>F25</f>
         <v>0.272339</v>
       </c>
       <c r="R3">
-        <f>G25</f>
-        <v>2.4171000000000002E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+        <f>G25*2</f>
+        <v>4.8342000000000003E-2</v>
+      </c>
+      <c r="S3">
+        <f>F88</f>
+        <v>0.62557099999999999</v>
+      </c>
+      <c r="T3">
+        <f>G88</f>
+        <v>5.9096000000000003E-2</v>
+      </c>
+      <c r="U3">
+        <f>F95</f>
+        <v>0.62497199999999997</v>
+      </c>
+      <c r="V3">
+        <f>G95</f>
+        <v>4.2668999999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>17</v>
       </c>
@@ -1860,26 +2115,42 @@
         <v>0.31326399999999999</v>
       </c>
       <c r="N4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="O4">
         <f>F32</f>
         <v>0.27376600000000001</v>
       </c>
       <c r="P4">
-        <f>G32</f>
-        <v>2.7536999999999999E-2</v>
+        <f>G32*2</f>
+        <v>5.5073999999999998E-2</v>
       </c>
       <c r="Q4">
         <f>F39</f>
         <v>0.27343400000000001</v>
       </c>
       <c r="R4">
-        <f>G39</f>
-        <v>1.5252E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+        <f>G39*2</f>
+        <v>3.0504E-2</v>
+      </c>
+      <c r="S4">
+        <f>F102</f>
+        <v>0.62321899999999997</v>
+      </c>
+      <c r="T4">
+        <f>G102</f>
+        <v>6.0428999999999997E-2</v>
+      </c>
+      <c r="U4">
+        <f>F109</f>
+        <v>0.632606</v>
+      </c>
+      <c r="V4">
+        <f>G109</f>
+        <v>0.101455</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>18</v>
       </c>
@@ -1908,26 +2179,42 @@
         <v>0.25980700000000001</v>
       </c>
       <c r="N5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="O5">
         <f>F46</f>
         <v>0.27436199999999999</v>
       </c>
       <c r="P5">
-        <f>G46</f>
-        <v>2.2568999999999999E-2</v>
+        <f>G46*2</f>
+        <v>4.5137999999999998E-2</v>
       </c>
       <c r="Q5">
         <f>F53</f>
         <v>0.27313700000000002</v>
       </c>
       <c r="R5">
-        <f>G53</f>
-        <v>1.5015000000000001E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+        <f>G53*2</f>
+        <v>3.0030000000000001E-2</v>
+      </c>
+      <c r="S5">
+        <f>F116</f>
+        <v>0.63110200000000005</v>
+      </c>
+      <c r="T5">
+        <f>G116</f>
+        <v>4.0656999999999999E-2</v>
+      </c>
+      <c r="U5">
+        <f>F123</f>
+        <v>0.63253400000000004</v>
+      </c>
+      <c r="V5">
+        <f>G123</f>
+        <v>5.3839999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>19</v>
       </c>
@@ -1956,18 +2243,42 @@
         <v>0.70544099999999998</v>
       </c>
       <c r="N6" t="s">
-        <v>29</v>
+        <v>27</v>
+      </c>
+      <c r="O6">
+        <f>F60</f>
+        <v>0.26810099999999998</v>
+      </c>
+      <c r="P6">
+        <f>G60*2</f>
+        <v>4.6612000000000001E-2</v>
       </c>
       <c r="Q6">
-        <f>F60</f>
+        <f>F67</f>
         <v>0.27313700000000002</v>
       </c>
       <c r="R6">
-        <f>G60</f>
-        <v>1.5015000000000001E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+        <f>G67*2</f>
+        <v>3.0030000000000001E-2</v>
+      </c>
+      <c r="S6">
+        <f>F130</f>
+        <v>0.62966</v>
+      </c>
+      <c r="T6">
+        <f>G130</f>
+        <v>5.3172999999999998E-2</v>
+      </c>
+      <c r="U6">
+        <f>F137</f>
+        <v>0.63186399999999998</v>
+      </c>
+      <c r="V6">
+        <f>G137</f>
+        <v>6.1768000000000003E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>20</v>
       </c>
@@ -1996,7 +2307,7 @@
         <v>295.26534199999998</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
         <v>21</v>
       </c>
@@ -2025,7 +2336,7 @@
         <v>24.674213000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2062,8 +2373,14 @@
       <c r="L9">
         <v>0.69710000000000005</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="N9" t="s">
+        <v>28</v>
+      </c>
+      <c r="O9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>16</v>
       </c>
@@ -2091,8 +2408,15 @@
       <c r="L10">
         <v>0.37497599999999998</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="N10">
+        <v>0.33205600000000002</v>
+      </c>
+      <c r="O10">
+        <f>N10-0.017246*2</f>
+        <v>0.297564</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
         <v>17</v>
       </c>
@@ -2120,8 +2444,15 @@
       <c r="L11">
         <v>0.30907600000000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="N11">
+        <v>0.33205600000000002</v>
+      </c>
+      <c r="O11">
+        <f t="shared" ref="O11:O14" si="0">N11-0.017246*2</f>
+        <v>0.297564</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
         <v>18</v>
       </c>
@@ -2149,8 +2480,15 @@
       <c r="L12">
         <v>0.254965</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="N12">
+        <v>0.33205600000000002</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="0"/>
+        <v>0.297564</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
         <v>19</v>
       </c>
@@ -2178,8 +2516,15 @@
       <c r="L13">
         <v>0.69706599999999996</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="N13">
+        <v>0.33205600000000002</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="0"/>
+        <v>0.297564</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>20</v>
       </c>
@@ -2207,8 +2552,15 @@
       <c r="L14">
         <v>388.45999</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="N14">
+        <v>0.33205600000000002</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="0"/>
+        <v>0.297564</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>21</v>
       </c>
@@ -2237,7 +2589,7 @@
         <v>24.176428999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -3514,7 +3866,7 @@
         <v>14</v>
       </c>
       <c r="B58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
         <v>9</v>
@@ -3522,203 +3874,2565 @@
       <c r="D58" t="s">
         <v>15</v>
       </c>
-      <c r="E58">
-        <v>10</v>
-      </c>
-      <c r="F58">
-        <v>0.669937</v>
-      </c>
-      <c r="G58">
-        <v>1.4670000000000001E-2</v>
-      </c>
-      <c r="H58">
-        <v>0.64715299999999998</v>
-      </c>
-      <c r="I58">
-        <v>0.65888000000000002</v>
-      </c>
-      <c r="J58">
-        <v>0.67050600000000005</v>
-      </c>
-      <c r="K58">
-        <v>0.68245</v>
-      </c>
-      <c r="L58">
-        <v>0.69186199999999998</v>
+      <c r="E58" s="2">
+        <v>10</v>
+      </c>
+      <c r="F58" s="2">
+        <v>0.67729399999999995</v>
+      </c>
+      <c r="G58" s="2">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="H58" s="2">
+        <v>0.61603300000000005</v>
+      </c>
+      <c r="I58" s="2">
+        <v>0.66675200000000001</v>
+      </c>
+      <c r="J58" s="2">
+        <v>0.68527899999999997</v>
+      </c>
+      <c r="K58" s="2">
+        <v>0.69350400000000001</v>
+      </c>
+      <c r="L58" s="2">
+        <v>0.70657999999999999</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D59" t="s">
         <v>16</v>
       </c>
-      <c r="E59">
-        <v>10</v>
-      </c>
-      <c r="F59">
-        <v>0.35724299999999998</v>
-      </c>
-      <c r="G59">
-        <v>9.1909999999999995E-3</v>
-      </c>
-      <c r="H59">
-        <v>0.34549200000000002</v>
-      </c>
-      <c r="I59">
-        <v>0.3508</v>
-      </c>
-      <c r="J59">
-        <v>0.35625299999999999</v>
-      </c>
-      <c r="K59">
-        <v>0.35916500000000001</v>
-      </c>
-      <c r="L59">
-        <v>0.37353399999999998</v>
+      <c r="E59" s="2">
+        <v>10</v>
+      </c>
+      <c r="F59" s="2">
+        <v>0.35430600000000001</v>
+      </c>
+      <c r="G59" s="2">
+        <v>1.6175999999999999E-2</v>
+      </c>
+      <c r="H59" s="2">
+        <v>0.33607999999999999</v>
+      </c>
+      <c r="I59" s="2">
+        <v>0.344001</v>
+      </c>
+      <c r="J59" s="2">
+        <v>0.35100900000000002</v>
+      </c>
+      <c r="K59" s="2">
+        <v>0.358014</v>
+      </c>
+      <c r="L59" s="2">
+        <v>0.38955899999999999</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D60" t="s">
         <v>17</v>
       </c>
-      <c r="E60">
-        <v>10</v>
-      </c>
-      <c r="F60">
-        <v>0.27313700000000002</v>
-      </c>
-      <c r="G60">
-        <v>1.5015000000000001E-2</v>
-      </c>
-      <c r="H60">
-        <v>0.25184800000000002</v>
-      </c>
-      <c r="I60">
-        <v>0.26202599999999998</v>
-      </c>
-      <c r="J60">
-        <v>0.26999200000000001</v>
-      </c>
-      <c r="K60">
-        <v>0.28412799999999999</v>
-      </c>
-      <c r="L60">
-        <v>0.297815</v>
+      <c r="E60" s="2">
+        <v>10</v>
+      </c>
+      <c r="F60" s="2">
+        <v>0.26810099999999998</v>
+      </c>
+      <c r="G60" s="2">
+        <v>2.3306E-2</v>
+      </c>
+      <c r="H60" s="2">
+        <v>0.23677999999999999</v>
+      </c>
+      <c r="I60" s="2">
+        <v>0.25595800000000002</v>
+      </c>
+      <c r="J60" s="2">
+        <v>0.2661</v>
+      </c>
+      <c r="K60" s="2">
+        <v>0.27767700000000001</v>
+      </c>
+      <c r="L60" s="2">
+        <v>0.31651400000000002</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D61" t="s">
         <v>18</v>
       </c>
-      <c r="E61">
-        <v>10</v>
-      </c>
-      <c r="F61">
-        <v>0.25325700000000001</v>
-      </c>
-      <c r="G61">
-        <v>6.1440000000000002E-3</v>
-      </c>
-      <c r="H61">
-        <v>0.24551999999999999</v>
-      </c>
-      <c r="I61">
-        <v>0.24802399999999999</v>
-      </c>
-      <c r="J61">
-        <v>0.252382</v>
-      </c>
-      <c r="K61">
-        <v>0.25728499999999999</v>
-      </c>
-      <c r="L61">
-        <v>0.26238400000000001</v>
+      <c r="E61" s="2">
+        <v>10</v>
+      </c>
+      <c r="F61" s="2">
+        <v>0.25175700000000001</v>
+      </c>
+      <c r="G61" s="2">
+        <v>1.1459E-2</v>
+      </c>
+      <c r="H61" s="2">
+        <v>0.24181800000000001</v>
+      </c>
+      <c r="I61" s="2">
+        <v>0.244257</v>
+      </c>
+      <c r="J61" s="2">
+        <v>0.247668</v>
+      </c>
+      <c r="K61" s="2">
+        <v>0.25402999999999998</v>
+      </c>
+      <c r="L61" s="2">
+        <v>0.27700399999999997</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D62" t="s">
         <v>19</v>
       </c>
-      <c r="E62">
-        <v>10</v>
-      </c>
-      <c r="F62">
-        <v>0.66925000000000001</v>
-      </c>
-      <c r="G62">
-        <v>1.477E-2</v>
-      </c>
-      <c r="H62">
-        <v>0.64644100000000004</v>
-      </c>
-      <c r="I62">
-        <v>0.65839800000000004</v>
-      </c>
-      <c r="J62">
-        <v>0.66947800000000002</v>
-      </c>
-      <c r="K62">
-        <v>0.68111600000000005</v>
-      </c>
-      <c r="L62">
-        <v>0.69184999999999997</v>
+      <c r="E62" s="2">
+        <v>10</v>
+      </c>
+      <c r="F62" s="2">
+        <v>0.67515199999999997</v>
+      </c>
+      <c r="G62" s="2">
+        <v>2.8507999999999999E-2</v>
+      </c>
+      <c r="H62" s="2">
+        <v>0.60742499999999999</v>
+      </c>
+      <c r="I62" s="2">
+        <v>0.665385</v>
+      </c>
+      <c r="J62" s="2">
+        <v>0.683527</v>
+      </c>
+      <c r="K62" s="2">
+        <v>0.69310700000000003</v>
+      </c>
+      <c r="L62" s="2">
+        <v>0.70653900000000003</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
         <v>20</v>
       </c>
-      <c r="E63">
-        <v>10</v>
-      </c>
-      <c r="F63">
-        <v>138.987211</v>
-      </c>
-      <c r="G63">
-        <v>86.395028999999994</v>
-      </c>
-      <c r="H63">
-        <v>84.881995000000003</v>
-      </c>
-      <c r="I63">
-        <v>96.134951999999998</v>
-      </c>
-      <c r="J63">
-        <v>105.10951799999999</v>
-      </c>
-      <c r="K63">
-        <v>139.30551199999999</v>
-      </c>
-      <c r="L63">
-        <v>373.37023900000003</v>
+      <c r="E63" s="2">
+        <v>10</v>
+      </c>
+      <c r="F63" s="2">
+        <v>136.575322</v>
+      </c>
+      <c r="G63" s="2">
+        <v>74.491040999999996</v>
+      </c>
+      <c r="H63" s="2">
+        <v>78.967471000000003</v>
+      </c>
+      <c r="I63" s="2">
+        <v>103.847718</v>
+      </c>
+      <c r="J63" s="2">
+        <v>113.276535</v>
+      </c>
+      <c r="K63" s="2">
+        <v>122.072067</v>
+      </c>
+      <c r="L63" s="2">
+        <v>327.366085</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D64" t="s">
         <v>21</v>
       </c>
-      <c r="E64">
-        <v>10</v>
-      </c>
-      <c r="F64">
+      <c r="E64" s="2">
+        <v>10</v>
+      </c>
+      <c r="F64" s="2">
+        <v>22.737594000000001</v>
+      </c>
+      <c r="G64" s="2">
+        <v>1.516186</v>
+      </c>
+      <c r="H64" s="2">
+        <v>21.042355000000001</v>
+      </c>
+      <c r="I64" s="2">
+        <v>21.633963000000001</v>
+      </c>
+      <c r="J64" s="2">
+        <v>22.307921</v>
+      </c>
+      <c r="K64" s="2">
+        <v>23.536598999999999</v>
+      </c>
+      <c r="L64" s="2">
+        <v>25.165990000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>14</v>
+      </c>
+      <c r="B65" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" t="s">
+        <v>15</v>
+      </c>
+      <c r="E65">
+        <v>10</v>
+      </c>
+      <c r="F65">
+        <v>0.669937</v>
+      </c>
+      <c r="G65">
+        <v>1.4670000000000001E-2</v>
+      </c>
+      <c r="H65">
+        <v>0.64715299999999998</v>
+      </c>
+      <c r="I65">
+        <v>0.65888000000000002</v>
+      </c>
+      <c r="J65">
+        <v>0.67050600000000005</v>
+      </c>
+      <c r="K65">
+        <v>0.68245</v>
+      </c>
+      <c r="L65">
+        <v>0.69186199999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D66" t="s">
+        <v>16</v>
+      </c>
+      <c r="E66">
+        <v>10</v>
+      </c>
+      <c r="F66">
+        <v>0.35724299999999998</v>
+      </c>
+      <c r="G66">
+        <v>9.1909999999999995E-3</v>
+      </c>
+      <c r="H66">
+        <v>0.34549200000000002</v>
+      </c>
+      <c r="I66">
+        <v>0.3508</v>
+      </c>
+      <c r="J66">
+        <v>0.35625299999999999</v>
+      </c>
+      <c r="K66">
+        <v>0.35916500000000001</v>
+      </c>
+      <c r="L66">
+        <v>0.37353399999999998</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D67" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67">
+        <v>10</v>
+      </c>
+      <c r="F67">
+        <v>0.27313700000000002</v>
+      </c>
+      <c r="G67">
+        <v>1.5015000000000001E-2</v>
+      </c>
+      <c r="H67">
+        <v>0.25184800000000002</v>
+      </c>
+      <c r="I67">
+        <v>0.26202599999999998</v>
+      </c>
+      <c r="J67">
+        <v>0.26999200000000001</v>
+      </c>
+      <c r="K67">
+        <v>0.28412799999999999</v>
+      </c>
+      <c r="L67">
+        <v>0.297815</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D68" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68">
+        <v>10</v>
+      </c>
+      <c r="F68">
+        <v>0.25325700000000001</v>
+      </c>
+      <c r="G68">
+        <v>6.1440000000000002E-3</v>
+      </c>
+      <c r="H68">
+        <v>0.24551999999999999</v>
+      </c>
+      <c r="I68">
+        <v>0.24802399999999999</v>
+      </c>
+      <c r="J68">
+        <v>0.252382</v>
+      </c>
+      <c r="K68">
+        <v>0.25728499999999999</v>
+      </c>
+      <c r="L68">
+        <v>0.26238400000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D69" t="s">
+        <v>19</v>
+      </c>
+      <c r="E69">
+        <v>10</v>
+      </c>
+      <c r="F69">
+        <v>0.66925000000000001</v>
+      </c>
+      <c r="G69">
+        <v>1.477E-2</v>
+      </c>
+      <c r="H69">
+        <v>0.64644100000000004</v>
+      </c>
+      <c r="I69">
+        <v>0.65839800000000004</v>
+      </c>
+      <c r="J69">
+        <v>0.66947800000000002</v>
+      </c>
+      <c r="K69">
+        <v>0.68111600000000005</v>
+      </c>
+      <c r="L69">
+        <v>0.69184999999999997</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D70" t="s">
+        <v>20</v>
+      </c>
+      <c r="E70">
+        <v>10</v>
+      </c>
+      <c r="F70">
+        <v>138.987211</v>
+      </c>
+      <c r="G70">
+        <v>86.395028999999994</v>
+      </c>
+      <c r="H70">
+        <v>84.881995000000003</v>
+      </c>
+      <c r="I70">
+        <v>96.134951999999998</v>
+      </c>
+      <c r="J70">
+        <v>105.10951799999999</v>
+      </c>
+      <c r="K70">
+        <v>139.30551199999999</v>
+      </c>
+      <c r="L70">
+        <v>373.37023900000003</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D71" t="s">
+        <v>21</v>
+      </c>
+      <c r="E71">
+        <v>10</v>
+      </c>
+      <c r="F71">
         <v>22.809920999999999</v>
       </c>
-      <c r="G64">
+      <c r="G71">
         <v>0.92216900000000002</v>
       </c>
-      <c r="H64">
+      <c r="H71">
         <v>21.567748999999999</v>
       </c>
-      <c r="I64">
+      <c r="I71">
         <v>22.087858000000001</v>
       </c>
-      <c r="J64">
+      <c r="J71">
         <v>22.825333000000001</v>
       </c>
-      <c r="K64">
+      <c r="K71">
         <v>23.441310000000001</v>
       </c>
-      <c r="L64">
+      <c r="L71">
         <v>24.452603</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72" t="s">
+        <v>15</v>
+      </c>
+      <c r="E72">
+        <v>10</v>
+      </c>
+      <c r="F72">
+        <v>0.72709100000000004</v>
+      </c>
+      <c r="G72">
+        <v>2.7368E-2</v>
+      </c>
+      <c r="H72">
+        <v>0.662107</v>
+      </c>
+      <c r="I72">
+        <v>0.72124299999999997</v>
+      </c>
+      <c r="J72">
+        <v>0.73233400000000004</v>
+      </c>
+      <c r="K72">
+        <v>0.74511499999999997</v>
+      </c>
+      <c r="L72">
+        <v>0.75608399999999998</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D73" t="s">
+        <v>16</v>
+      </c>
+      <c r="E73">
+        <v>10</v>
+      </c>
+      <c r="F73">
+        <v>0.51743700000000004</v>
+      </c>
+      <c r="G73">
+        <v>2.8851999999999999E-2</v>
+      </c>
+      <c r="H73">
+        <v>0.46723300000000001</v>
+      </c>
+      <c r="I73">
+        <v>0.50812999999999997</v>
+      </c>
+      <c r="J73">
+        <v>0.51188599999999995</v>
+      </c>
+      <c r="K73">
+        <v>0.52126099999999997</v>
+      </c>
+      <c r="L73">
+        <v>0.56918199999999997</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D74" t="s">
+        <v>17</v>
+      </c>
+      <c r="E74">
+        <v>10</v>
+      </c>
+      <c r="F74">
+        <v>0.61414999999999997</v>
+      </c>
+      <c r="G74">
+        <v>7.5661999999999993E-2</v>
+      </c>
+      <c r="H74">
+        <v>0.49588700000000002</v>
+      </c>
+      <c r="I74">
+        <v>0.57965199999999995</v>
+      </c>
+      <c r="J74">
+        <v>0.59409100000000004</v>
+      </c>
+      <c r="K74">
+        <v>0.64605699999999999</v>
+      </c>
+      <c r="L74">
+        <v>0.74375000000000002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D75" t="s">
+        <v>18</v>
+      </c>
+      <c r="E75">
+        <v>10</v>
+      </c>
+      <c r="F75">
+        <v>0.35091600000000001</v>
+      </c>
+      <c r="G75">
+        <v>1.3115999999999999E-2</v>
+      </c>
+      <c r="H75">
+        <v>0.327262</v>
+      </c>
+      <c r="I75">
+        <v>0.34562199999999998</v>
+      </c>
+      <c r="J75">
+        <v>0.350408</v>
+      </c>
+      <c r="K75">
+        <v>0.360064</v>
+      </c>
+      <c r="L75">
+        <v>0.36930499999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D76" t="s">
+        <v>19</v>
+      </c>
+      <c r="E76">
+        <v>10</v>
+      </c>
+      <c r="F76">
+        <v>0.72605500000000001</v>
+      </c>
+      <c r="G76">
+        <v>2.9340000000000001E-2</v>
+      </c>
+      <c r="H76">
+        <v>0.65473999999999999</v>
+      </c>
+      <c r="I76">
+        <v>0.71960299999999999</v>
+      </c>
+      <c r="J76">
+        <v>0.73233199999999998</v>
+      </c>
+      <c r="K76">
+        <v>0.74500900000000003</v>
+      </c>
+      <c r="L76">
+        <v>0.75573900000000005</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E77" s="2">
+        <v>10</v>
+      </c>
+      <c r="F77" s="1">
+        <v>265.08830799999998</v>
+      </c>
+      <c r="G77">
+        <v>302.07901500000003</v>
+      </c>
+      <c r="H77">
+        <v>112.80735</v>
+      </c>
+      <c r="I77">
+        <v>130.91637299999999</v>
+      </c>
+      <c r="J77">
+        <v>155.02915200000001</v>
+      </c>
+      <c r="K77">
+        <v>207.80680699999999</v>
+      </c>
+      <c r="L77">
+        <v>1104.114016</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A78" s="2"/>
+      <c r="D78" t="s">
+        <v>21</v>
+      </c>
+      <c r="E78">
+        <v>10</v>
+      </c>
+      <c r="F78">
+        <v>28.213077999999999</v>
+      </c>
+      <c r="G78">
+        <v>1.5598449999999999</v>
+      </c>
+      <c r="H78">
+        <v>25.825617999999999</v>
+      </c>
+      <c r="I78">
+        <v>27.058154999999999</v>
+      </c>
+      <c r="J78">
+        <v>28.741437999999999</v>
+      </c>
+      <c r="K78">
+        <v>28.965132000000001</v>
+      </c>
+      <c r="L78">
+        <v>30.793053</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79" t="s">
+        <v>15</v>
+      </c>
+      <c r="E79">
+        <v>10</v>
+      </c>
+      <c r="F79">
+        <v>0.72709900000000005</v>
+      </c>
+      <c r="G79">
+        <v>1.6351000000000001E-2</v>
+      </c>
+      <c r="H79">
+        <v>0.69044700000000003</v>
+      </c>
+      <c r="I79">
+        <v>0.72710799999999998</v>
+      </c>
+      <c r="J79">
+        <v>0.73459399999999997</v>
+      </c>
+      <c r="K79">
+        <v>0.73657399999999995</v>
+      </c>
+      <c r="L79">
+        <v>0.73890599999999995</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A80" s="2"/>
+      <c r="D80" t="s">
+        <v>16</v>
+      </c>
+      <c r="E80">
+        <v>10</v>
+      </c>
+      <c r="F80">
+        <v>0.51664699999999997</v>
+      </c>
+      <c r="G80">
+        <v>2.6896E-2</v>
+      </c>
+      <c r="H80">
+        <v>0.48097699999999999</v>
+      </c>
+      <c r="I80">
+        <v>0.49682999999999999</v>
+      </c>
+      <c r="J80">
+        <v>0.51249699999999998</v>
+      </c>
+      <c r="K80">
+        <v>0.54058899999999999</v>
+      </c>
+      <c r="L80">
+        <v>0.55335100000000004</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A81" s="2"/>
+      <c r="D81" t="s">
+        <v>17</v>
+      </c>
+      <c r="E81">
+        <v>10</v>
+      </c>
+      <c r="F81">
+        <v>0.61185</v>
+      </c>
+      <c r="G81">
+        <v>7.1894E-2</v>
+      </c>
+      <c r="H81">
+        <v>0.51248899999999997</v>
+      </c>
+      <c r="I81">
+        <v>0.55964499999999995</v>
+      </c>
+      <c r="J81">
+        <v>0.59794800000000004</v>
+      </c>
+      <c r="K81">
+        <v>0.67461199999999999</v>
+      </c>
+      <c r="L81">
+        <v>0.71297500000000003</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A82" s="2"/>
+      <c r="D82" t="s">
+        <v>18</v>
+      </c>
+      <c r="E82">
+        <v>10</v>
+      </c>
+      <c r="F82">
+        <v>0.35013499999999997</v>
+      </c>
+      <c r="G82">
+        <v>1.1965E-2</v>
+      </c>
+      <c r="H82">
+        <v>0.33512700000000001</v>
+      </c>
+      <c r="I82">
+        <v>0.33885300000000002</v>
+      </c>
+      <c r="J82">
+        <v>0.35097200000000001</v>
+      </c>
+      <c r="K82">
+        <v>0.35963400000000001</v>
+      </c>
+      <c r="L82">
+        <v>0.369398</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A83" s="2"/>
+      <c r="D83" t="s">
+        <v>19</v>
+      </c>
+      <c r="E83">
+        <v>10</v>
+      </c>
+      <c r="F83">
+        <v>0.72649900000000001</v>
+      </c>
+      <c r="G83">
+        <v>1.6383000000000002E-2</v>
+      </c>
+      <c r="H83">
+        <v>0.69040000000000001</v>
+      </c>
+      <c r="I83">
+        <v>0.72704999999999997</v>
+      </c>
+      <c r="J83">
+        <v>0.73424500000000004</v>
+      </c>
+      <c r="K83">
+        <v>0.73624599999999996</v>
+      </c>
+      <c r="L83">
+        <v>0.73682499999999995</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A84" s="2"/>
+      <c r="D84" t="s">
+        <v>20</v>
+      </c>
+      <c r="E84">
+        <v>10</v>
+      </c>
+      <c r="F84">
+        <v>262.66928000000001</v>
+      </c>
+      <c r="G84">
+        <v>285.06922600000001</v>
+      </c>
+      <c r="H84">
+        <v>107.713351</v>
+      </c>
+      <c r="I84">
+        <v>129.88966199999999</v>
+      </c>
+      <c r="J84">
+        <v>149.20567500000001</v>
+      </c>
+      <c r="K84">
+        <v>232.06352799999999</v>
+      </c>
+      <c r="L84">
+        <v>1046.8932609999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E85" s="2">
+        <v>10</v>
+      </c>
+      <c r="F85" s="2">
+        <v>28.138157</v>
+      </c>
+      <c r="G85">
+        <v>1.01586</v>
+      </c>
+      <c r="H85">
+        <v>26.327452000000001</v>
+      </c>
+      <c r="I85">
+        <v>27.66677</v>
+      </c>
+      <c r="J85">
+        <v>28.168800000000001</v>
+      </c>
+      <c r="K85">
+        <v>28.831541999999999</v>
+      </c>
+      <c r="L85">
+        <v>29.461030999999998</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E86" s="2">
+        <v>10</v>
+      </c>
+      <c r="F86" s="2">
+        <v>0.72133100000000006</v>
+      </c>
+      <c r="G86">
+        <v>2.3139E-2</v>
+      </c>
+      <c r="H86">
+        <v>0.66885700000000003</v>
+      </c>
+      <c r="I86">
+        <v>0.71257099999999995</v>
+      </c>
+      <c r="J86">
+        <v>0.71993799999999997</v>
+      </c>
+      <c r="K86">
+        <v>0.73871299999999995</v>
+      </c>
+      <c r="L86">
+        <v>0.74986900000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A87" s="2"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E87" s="2">
+        <v>10</v>
+      </c>
+      <c r="F87" s="2">
+        <v>0.52276199999999995</v>
+      </c>
+      <c r="G87">
+        <v>2.2209E-2</v>
+      </c>
+      <c r="H87">
+        <v>0.495971</v>
+      </c>
+      <c r="I87">
+        <v>0.51036999999999999</v>
+      </c>
+      <c r="J87">
+        <v>0.516432</v>
+      </c>
+      <c r="K87">
+        <v>0.52805899999999995</v>
+      </c>
+      <c r="L87">
+        <v>0.56506800000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A88" s="2"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E88" s="2">
+        <v>10</v>
+      </c>
+      <c r="F88" s="2">
+        <v>0.62557099999999999</v>
+      </c>
+      <c r="G88">
+        <v>5.9096000000000003E-2</v>
+      </c>
+      <c r="H88">
+        <v>0.55643100000000001</v>
+      </c>
+      <c r="I88">
+        <v>0.58938500000000005</v>
+      </c>
+      <c r="J88">
+        <v>0.61372800000000005</v>
+      </c>
+      <c r="K88">
+        <v>0.65026899999999999</v>
+      </c>
+      <c r="L88">
+        <v>0.747583</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E89" s="2">
+        <v>10</v>
+      </c>
+      <c r="F89" s="2">
+        <v>0.35388199999999997</v>
+      </c>
+      <c r="G89">
+        <v>8.8889999999999993E-3</v>
+      </c>
+      <c r="H89">
+        <v>0.34193400000000002</v>
+      </c>
+      <c r="I89">
+        <v>0.34862199999999999</v>
+      </c>
+      <c r="J89">
+        <v>0.35340700000000003</v>
+      </c>
+      <c r="K89">
+        <v>0.35593200000000003</v>
+      </c>
+      <c r="L89">
+        <v>0.372583</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A90" s="2"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E90" s="2">
+        <v>10</v>
+      </c>
+      <c r="F90" s="2">
+        <v>0.72061399999999998</v>
+      </c>
+      <c r="G90">
+        <v>2.3518000000000001E-2</v>
+      </c>
+      <c r="H90">
+        <v>0.66661199999999998</v>
+      </c>
+      <c r="I90">
+        <v>0.71119299999999996</v>
+      </c>
+      <c r="J90">
+        <v>0.71985600000000005</v>
+      </c>
+      <c r="K90">
+        <v>0.73814100000000005</v>
+      </c>
+      <c r="L90">
+        <v>0.74901899999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E91" s="2">
+        <v>10</v>
+      </c>
+      <c r="F91" s="2">
+        <v>269.41267299999998</v>
+      </c>
+      <c r="G91">
+        <v>275.70930099999998</v>
+      </c>
+      <c r="H91">
+        <v>119.415639</v>
+      </c>
+      <c r="I91">
+        <v>140.526657</v>
+      </c>
+      <c r="J91">
+        <v>163.215273</v>
+      </c>
+      <c r="K91">
+        <v>229.70943700000001</v>
+      </c>
+      <c r="L91">
+        <v>1027.5873799999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E92" s="2">
+        <v>10</v>
+      </c>
+      <c r="F92" s="2">
+        <v>28.554618000000001</v>
+      </c>
+      <c r="G92">
+        <v>1.178167</v>
+      </c>
+      <c r="H92">
+        <v>26.683478000000001</v>
+      </c>
+      <c r="I92">
+        <v>27.877074</v>
+      </c>
+      <c r="J92">
+        <v>28.559304999999998</v>
+      </c>
+      <c r="K92">
+        <v>29.291865000000001</v>
+      </c>
+      <c r="L92">
+        <v>30.234252999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E93" s="2">
+        <v>10</v>
+      </c>
+      <c r="F93" s="2">
+        <v>0.72152499999999997</v>
+      </c>
+      <c r="G93">
+        <v>2.4653000000000001E-2</v>
+      </c>
+      <c r="H93">
+        <v>0.65913900000000003</v>
+      </c>
+      <c r="I93">
+        <v>0.72139600000000004</v>
+      </c>
+      <c r="J93">
+        <v>0.72513099999999997</v>
+      </c>
+      <c r="K93">
+        <v>0.73802000000000001</v>
+      </c>
+      <c r="L93">
+        <v>0.74069799999999997</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D94" t="s">
+        <v>16</v>
+      </c>
+      <c r="E94">
+        <v>10</v>
+      </c>
+      <c r="F94">
+        <v>0.52210900000000005</v>
+      </c>
+      <c r="G94">
+        <v>1.6386999999999999E-2</v>
+      </c>
+      <c r="H94">
+        <v>0.50570300000000001</v>
+      </c>
+      <c r="I94">
+        <v>0.51392599999999999</v>
+      </c>
+      <c r="J94">
+        <v>0.51974799999999999</v>
+      </c>
+      <c r="K94">
+        <v>0.52388599999999996</v>
+      </c>
+      <c r="L94">
+        <v>0.56482600000000005</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D95" t="s">
+        <v>17</v>
+      </c>
+      <c r="E95">
+        <v>10</v>
+      </c>
+      <c r="F95">
+        <v>0.62497199999999997</v>
+      </c>
+      <c r="G95">
+        <v>4.2668999999999999E-2</v>
+      </c>
+      <c r="H95">
+        <v>0.58672599999999997</v>
+      </c>
+      <c r="I95">
+        <v>0.59964200000000001</v>
+      </c>
+      <c r="J95">
+        <v>0.61675500000000005</v>
+      </c>
+      <c r="K95">
+        <v>0.62991200000000003</v>
+      </c>
+      <c r="L95">
+        <v>0.734684</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D96" t="s">
+        <v>18</v>
+      </c>
+      <c r="E96">
+        <v>10</v>
+      </c>
+      <c r="F96">
+        <v>0.353323</v>
+      </c>
+      <c r="G96">
+        <v>7.1679999999999999E-3</v>
+      </c>
+      <c r="H96">
+        <v>0.34468399999999999</v>
+      </c>
+      <c r="I96">
+        <v>0.34828300000000001</v>
+      </c>
+      <c r="J96">
+        <v>0.35188599999999998</v>
+      </c>
+      <c r="K96">
+        <v>0.35719899999999999</v>
+      </c>
+      <c r="L96">
+        <v>0.36918800000000002</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D97" t="s">
+        <v>19</v>
+      </c>
+      <c r="E97">
+        <v>10</v>
+      </c>
+      <c r="F97">
+        <v>0.72058500000000003</v>
+      </c>
+      <c r="G97">
+        <v>2.5312000000000001E-2</v>
+      </c>
+      <c r="H97">
+        <v>0.65682799999999997</v>
+      </c>
+      <c r="I97">
+        <v>0.72139399999999998</v>
+      </c>
+      <c r="J97">
+        <v>0.72489599999999998</v>
+      </c>
+      <c r="K97">
+        <v>0.73765400000000003</v>
+      </c>
+      <c r="L97">
+        <v>0.74028400000000005</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D98" t="s">
+        <v>20</v>
+      </c>
+      <c r="E98">
+        <v>10</v>
+      </c>
+      <c r="F98">
+        <v>279.87606799999998</v>
+      </c>
+      <c r="G98">
+        <v>371.27874400000002</v>
+      </c>
+      <c r="H98">
+        <v>109.44025999999999</v>
+      </c>
+      <c r="I98">
+        <v>128.946731</v>
+      </c>
+      <c r="J98">
+        <v>153.53345899999999</v>
+      </c>
+      <c r="K98">
+        <v>176.733754</v>
+      </c>
+      <c r="L98">
+        <v>1319.7966730000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D99" t="s">
+        <v>21</v>
+      </c>
+      <c r="E99">
+        <v>10</v>
+      </c>
+      <c r="F99">
+        <v>28.490085000000001</v>
+      </c>
+      <c r="G99">
+        <v>0.85986200000000002</v>
+      </c>
+      <c r="H99">
+        <v>27.219922</v>
+      </c>
+      <c r="I99">
+        <v>27.820747000000001</v>
+      </c>
+      <c r="J99">
+        <v>28.555142</v>
+      </c>
+      <c r="K99">
+        <v>28.920238000000001</v>
+      </c>
+      <c r="L99">
+        <v>29.795126</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>12</v>
+      </c>
+      <c r="B100" t="s">
+        <v>9</v>
+      </c>
+      <c r="C100" t="s">
+        <v>10</v>
+      </c>
+      <c r="D100" t="s">
+        <v>15</v>
+      </c>
+      <c r="E100">
+        <v>10</v>
+      </c>
+      <c r="F100">
+        <v>0.72248800000000002</v>
+      </c>
+      <c r="G100">
+        <v>1.8745999999999999E-2</v>
+      </c>
+      <c r="H100">
+        <v>0.68987500000000002</v>
+      </c>
+      <c r="I100">
+        <v>0.70772100000000004</v>
+      </c>
+      <c r="J100">
+        <v>0.72465199999999996</v>
+      </c>
+      <c r="K100">
+        <v>0.73590800000000001</v>
+      </c>
+      <c r="L100">
+        <v>0.74802199999999996</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D101" t="s">
+        <v>16</v>
+      </c>
+      <c r="E101">
+        <v>10</v>
+      </c>
+      <c r="F101">
+        <v>0.52220999999999995</v>
+      </c>
+      <c r="G101">
+        <v>2.2443999999999999E-2</v>
+      </c>
+      <c r="H101">
+        <v>0.49483300000000002</v>
+      </c>
+      <c r="I101">
+        <v>0.50580899999999995</v>
+      </c>
+      <c r="J101">
+        <v>0.51477899999999999</v>
+      </c>
+      <c r="K101">
+        <v>0.53762900000000002</v>
+      </c>
+      <c r="L101">
+        <v>0.56745299999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D102" t="s">
+        <v>17</v>
+      </c>
+      <c r="E102">
+        <v>10</v>
+      </c>
+      <c r="F102">
+        <v>0.62321899999999997</v>
+      </c>
+      <c r="G102">
+        <v>6.0428999999999997E-2</v>
+      </c>
+      <c r="H102">
+        <v>0.56328699999999998</v>
+      </c>
+      <c r="I102">
+        <v>0.58387500000000003</v>
+      </c>
+      <c r="J102">
+        <v>0.60529900000000003</v>
+      </c>
+      <c r="K102">
+        <v>0.64716399999999996</v>
+      </c>
+      <c r="L102">
+        <v>0.75232900000000003</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D103" t="s">
+        <v>18</v>
+      </c>
+      <c r="E103">
+        <v>10</v>
+      </c>
+      <c r="F103">
+        <v>0.35424800000000001</v>
+      </c>
+      <c r="G103">
+        <v>1.2E-2</v>
+      </c>
+      <c r="H103">
+        <v>0.33784999999999998</v>
+      </c>
+      <c r="I103">
+        <v>0.34734300000000001</v>
+      </c>
+      <c r="J103">
+        <v>0.35394399999999998</v>
+      </c>
+      <c r="K103">
+        <v>0.35835400000000001</v>
+      </c>
+      <c r="L103">
+        <v>0.37571900000000003</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D104" t="s">
+        <v>19</v>
+      </c>
+      <c r="E104">
+        <v>10</v>
+      </c>
+      <c r="F104">
+        <v>0.72124999999999995</v>
+      </c>
+      <c r="G104">
+        <v>1.9859000000000002E-2</v>
+      </c>
+      <c r="H104">
+        <v>0.68235699999999999</v>
+      </c>
+      <c r="I104">
+        <v>0.70736100000000002</v>
+      </c>
+      <c r="J104">
+        <v>0.72459399999999996</v>
+      </c>
+      <c r="K104">
+        <v>0.73563500000000004</v>
+      </c>
+      <c r="L104">
+        <v>0.74495100000000003</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D105" t="s">
+        <v>20</v>
+      </c>
+      <c r="E105">
+        <v>10</v>
+      </c>
+      <c r="F105">
+        <v>267.40826800000002</v>
+      </c>
+      <c r="G105">
+        <v>296.154087</v>
+      </c>
+      <c r="H105">
+        <v>103.508257</v>
+      </c>
+      <c r="I105">
+        <v>137.899439</v>
+      </c>
+      <c r="J105">
+        <v>170.18633399999999</v>
+      </c>
+      <c r="K105">
+        <v>201.37682699999999</v>
+      </c>
+      <c r="L105">
+        <v>1087.26044</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D106" t="s">
+        <v>21</v>
+      </c>
+      <c r="E106">
+        <v>10</v>
+      </c>
+      <c r="F106">
+        <v>28.536584999999999</v>
+      </c>
+      <c r="G106">
+        <v>1.395761</v>
+      </c>
+      <c r="H106">
+        <v>26.687518000000001</v>
+      </c>
+      <c r="I106">
+        <v>27.166923000000001</v>
+      </c>
+      <c r="J106">
+        <v>28.702669</v>
+      </c>
+      <c r="K106">
+        <v>29.830862</v>
+      </c>
+      <c r="L106">
+        <v>30.230543000000001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>12</v>
+      </c>
+      <c r="B107" t="s">
+        <v>10</v>
+      </c>
+      <c r="C107" t="s">
+        <v>10</v>
+      </c>
+      <c r="D107" t="s">
+        <v>15</v>
+      </c>
+      <c r="E107">
+        <v>10</v>
+      </c>
+      <c r="F107">
+        <v>0.72037499999999999</v>
+      </c>
+      <c r="G107">
+        <v>3.3335999999999998E-2</v>
+      </c>
+      <c r="H107">
+        <v>0.65043200000000001</v>
+      </c>
+      <c r="I107">
+        <v>0.73052700000000004</v>
+      </c>
+      <c r="J107">
+        <v>0.73460599999999998</v>
+      </c>
+      <c r="K107">
+        <v>0.73834599999999995</v>
+      </c>
+      <c r="L107">
+        <v>0.74229400000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D108" t="s">
+        <v>16</v>
+      </c>
+      <c r="E108">
+        <v>10</v>
+      </c>
+      <c r="F108">
+        <v>0.52556899999999995</v>
+      </c>
+      <c r="G108">
+        <v>4.3222999999999998E-2</v>
+      </c>
+      <c r="H108">
+        <v>0.495172</v>
+      </c>
+      <c r="I108">
+        <v>0.49915100000000001</v>
+      </c>
+      <c r="J108">
+        <v>0.50883599999999996</v>
+      </c>
+      <c r="K108">
+        <v>0.52257200000000004</v>
+      </c>
+      <c r="L108">
+        <v>0.62411099999999997</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D109" t="s">
+        <v>17</v>
+      </c>
+      <c r="E109">
+        <v>10</v>
+      </c>
+      <c r="F109">
+        <v>0.632606</v>
+      </c>
+      <c r="G109">
+        <v>0.101455</v>
+      </c>
+      <c r="H109">
+        <v>0.54260299999999995</v>
+      </c>
+      <c r="I109">
+        <v>0.58274800000000004</v>
+      </c>
+      <c r="J109">
+        <v>0.58898700000000004</v>
+      </c>
+      <c r="K109">
+        <v>0.62296099999999999</v>
+      </c>
+      <c r="L109">
+        <v>0.87195500000000004</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D110" t="s">
+        <v>18</v>
+      </c>
+      <c r="E110">
+        <v>10</v>
+      </c>
+      <c r="F110">
+        <v>0.35650199999999999</v>
+      </c>
+      <c r="G110">
+        <v>2.2544999999999999E-2</v>
+      </c>
+      <c r="H110">
+        <v>0.33433600000000002</v>
+      </c>
+      <c r="I110">
+        <v>0.34527400000000003</v>
+      </c>
+      <c r="J110">
+        <v>0.347298</v>
+      </c>
+      <c r="K110">
+        <v>0.35745900000000003</v>
+      </c>
+      <c r="L110">
+        <v>0.40725800000000001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D111" t="s">
+        <v>19</v>
+      </c>
+      <c r="E111">
+        <v>10</v>
+      </c>
+      <c r="F111">
+        <v>0.71858900000000003</v>
+      </c>
+      <c r="G111">
+        <v>3.5972999999999998E-2</v>
+      </c>
+      <c r="H111">
+        <v>0.64307999999999998</v>
+      </c>
+      <c r="I111">
+        <v>0.72967800000000005</v>
+      </c>
+      <c r="J111">
+        <v>0.73351900000000003</v>
+      </c>
+      <c r="K111">
+        <v>0.73831500000000005</v>
+      </c>
+      <c r="L111">
+        <v>0.74229199999999995</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D112" t="s">
+        <v>20</v>
+      </c>
+      <c r="E112">
+        <v>10</v>
+      </c>
+      <c r="F112">
+        <v>267.03073499999999</v>
+      </c>
+      <c r="G112">
+        <v>274.28704800000003</v>
+      </c>
+      <c r="H112">
+        <v>117.88867399999999</v>
+      </c>
+      <c r="I112">
+        <v>134.36452700000001</v>
+      </c>
+      <c r="J112">
+        <v>144.473546</v>
+      </c>
+      <c r="K112">
+        <v>257.39965100000001</v>
+      </c>
+      <c r="L112">
+        <v>1011.159686</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D113" t="s">
+        <v>21</v>
+      </c>
+      <c r="E113">
+        <v>10</v>
+      </c>
+      <c r="F113">
+        <v>28.641254</v>
+      </c>
+      <c r="G113">
+        <v>1.393235</v>
+      </c>
+      <c r="H113">
+        <v>27.17296</v>
+      </c>
+      <c r="I113">
+        <v>27.701426000000001</v>
+      </c>
+      <c r="J113">
+        <v>28.422340999999999</v>
+      </c>
+      <c r="K113">
+        <v>29.097346000000002</v>
+      </c>
+      <c r="L113">
+        <v>31.973181</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>13</v>
+      </c>
+      <c r="B114" t="s">
+        <v>9</v>
+      </c>
+      <c r="C114" t="s">
+        <v>10</v>
+      </c>
+      <c r="D114" t="s">
+        <v>15</v>
+      </c>
+      <c r="E114">
+        <v>10</v>
+      </c>
+      <c r="F114">
+        <v>0.71824900000000003</v>
+      </c>
+      <c r="G114">
+        <v>2.1287E-2</v>
+      </c>
+      <c r="H114">
+        <v>0.67287300000000005</v>
+      </c>
+      <c r="I114">
+        <v>0.71490399999999998</v>
+      </c>
+      <c r="J114">
+        <v>0.72462899999999997</v>
+      </c>
+      <c r="K114">
+        <v>0.73351100000000002</v>
+      </c>
+      <c r="L114">
+        <v>0.739394</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D115" t="s">
+        <v>16</v>
+      </c>
+      <c r="E115">
+        <v>10</v>
+      </c>
+      <c r="F115">
+        <v>0.52911900000000001</v>
+      </c>
+      <c r="G115">
+        <v>1.5576E-2</v>
+      </c>
+      <c r="H115">
+        <v>0.51096799999999998</v>
+      </c>
+      <c r="I115">
+        <v>0.51787499999999997</v>
+      </c>
+      <c r="J115">
+        <v>0.53046000000000004</v>
+      </c>
+      <c r="K115">
+        <v>0.53383599999999998</v>
+      </c>
+      <c r="L115">
+        <v>0.56327499999999997</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D116" t="s">
+        <v>17</v>
+      </c>
+      <c r="E116">
+        <v>10</v>
+      </c>
+      <c r="F116">
+        <v>0.63110200000000005</v>
+      </c>
+      <c r="G116">
+        <v>4.0656999999999999E-2</v>
+      </c>
+      <c r="H116">
+        <v>0.56270200000000004</v>
+      </c>
+      <c r="I116">
+        <v>0.61472700000000002</v>
+      </c>
+      <c r="J116">
+        <v>0.62899099999999997</v>
+      </c>
+      <c r="K116">
+        <v>0.65195099999999995</v>
+      </c>
+      <c r="L116">
+        <v>0.70254300000000003</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D117" t="s">
+        <v>18</v>
+      </c>
+      <c r="E117">
+        <v>10</v>
+      </c>
+      <c r="F117">
+        <v>0.36419000000000001</v>
+      </c>
+      <c r="G117">
+        <v>1.1501000000000001E-2</v>
+      </c>
+      <c r="H117">
+        <v>0.34789100000000001</v>
+      </c>
+      <c r="I117">
+        <v>0.355348</v>
+      </c>
+      <c r="J117">
+        <v>0.36292799999999997</v>
+      </c>
+      <c r="K117">
+        <v>0.37254300000000001</v>
+      </c>
+      <c r="L117">
+        <v>0.38400400000000001</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D118" t="s">
+        <v>19</v>
+      </c>
+      <c r="E118">
+        <v>10</v>
+      </c>
+      <c r="F118">
+        <v>0.71704100000000004</v>
+      </c>
+      <c r="G118">
+        <v>2.2065000000000001E-2</v>
+      </c>
+      <c r="H118">
+        <v>0.66942400000000002</v>
+      </c>
+      <c r="I118">
+        <v>0.71485100000000001</v>
+      </c>
+      <c r="J118">
+        <v>0.72419699999999998</v>
+      </c>
+      <c r="K118">
+        <v>0.73290699999999998</v>
+      </c>
+      <c r="L118">
+        <v>0.73775400000000002</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D119" t="s">
+        <v>20</v>
+      </c>
+      <c r="E119">
+        <v>10</v>
+      </c>
+      <c r="F119">
+        <v>253.08049500000001</v>
+      </c>
+      <c r="G119">
+        <v>235.69494800000001</v>
+      </c>
+      <c r="H119">
+        <v>116.31923999999999</v>
+      </c>
+      <c r="I119">
+        <v>149.443523</v>
+      </c>
+      <c r="J119">
+        <v>168.59698800000001</v>
+      </c>
+      <c r="K119">
+        <v>228.05780899999999</v>
+      </c>
+      <c r="L119">
+        <v>899.27417800000001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D120" t="s">
+        <v>21</v>
+      </c>
+      <c r="E120">
+        <v>10</v>
+      </c>
+      <c r="F120">
+        <v>29.301445000000001</v>
+      </c>
+      <c r="G120">
+        <v>1.2428429999999999</v>
+      </c>
+      <c r="H120">
+        <v>27.292331000000001</v>
+      </c>
+      <c r="I120">
+        <v>28.605398999999998</v>
+      </c>
+      <c r="J120">
+        <v>29.284246</v>
+      </c>
+      <c r="K120">
+        <v>30.042285</v>
+      </c>
+      <c r="L120">
+        <v>31.633899</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>13</v>
+      </c>
+      <c r="B121" t="s">
+        <v>10</v>
+      </c>
+      <c r="C121" t="s">
+        <v>10</v>
+      </c>
+      <c r="D121" t="s">
+        <v>15</v>
+      </c>
+      <c r="E121">
+        <v>10</v>
+      </c>
+      <c r="F121">
+        <v>0.71870400000000001</v>
+      </c>
+      <c r="G121">
+        <v>1.8154E-2</v>
+      </c>
+      <c r="H121">
+        <v>0.68057299999999998</v>
+      </c>
+      <c r="I121">
+        <v>0.71369899999999997</v>
+      </c>
+      <c r="J121">
+        <v>0.71760000000000002</v>
+      </c>
+      <c r="K121">
+        <v>0.73012200000000005</v>
+      </c>
+      <c r="L121">
+        <v>0.74733700000000003</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D122" t="s">
+        <v>16</v>
+      </c>
+      <c r="E122">
+        <v>10</v>
+      </c>
+      <c r="F122">
+        <v>0.52955099999999999</v>
+      </c>
+      <c r="G122">
+        <v>2.1475999999999999E-2</v>
+      </c>
+      <c r="H122">
+        <v>0.496558</v>
+      </c>
+      <c r="I122">
+        <v>0.51282899999999998</v>
+      </c>
+      <c r="J122">
+        <v>0.53200700000000001</v>
+      </c>
+      <c r="K122">
+        <v>0.54310999999999998</v>
+      </c>
+      <c r="L122">
+        <v>0.56408899999999995</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D123" t="s">
+        <v>17</v>
+      </c>
+      <c r="E123">
+        <v>10</v>
+      </c>
+      <c r="F123">
+        <v>0.63253400000000004</v>
+      </c>
+      <c r="G123">
+        <v>5.3839999999999999E-2</v>
+      </c>
+      <c r="H123">
+        <v>0.55250900000000003</v>
+      </c>
+      <c r="I123">
+        <v>0.59941699999999998</v>
+      </c>
+      <c r="J123">
+        <v>0.62664399999999998</v>
+      </c>
+      <c r="K123">
+        <v>0.66415000000000002</v>
+      </c>
+      <c r="L123">
+        <v>0.72010799999999997</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D124" t="s">
+        <v>18</v>
+      </c>
+      <c r="E124">
+        <v>10</v>
+      </c>
+      <c r="F124">
+        <v>0.364317</v>
+      </c>
+      <c r="G124">
+        <v>1.3169E-2</v>
+      </c>
+      <c r="H124">
+        <v>0.346165</v>
+      </c>
+      <c r="I124">
+        <v>0.353574</v>
+      </c>
+      <c r="J124">
+        <v>0.36251800000000001</v>
+      </c>
+      <c r="K124">
+        <v>0.37720799999999999</v>
+      </c>
+      <c r="L124">
+        <v>0.38168999999999997</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D125" t="s">
+        <v>19</v>
+      </c>
+      <c r="E125">
+        <v>10</v>
+      </c>
+      <c r="F125">
+        <v>0.71832700000000005</v>
+      </c>
+      <c r="G125">
+        <v>1.8266999999999999E-2</v>
+      </c>
+      <c r="H125">
+        <v>0.67973499999999998</v>
+      </c>
+      <c r="I125">
+        <v>0.71341399999999999</v>
+      </c>
+      <c r="J125">
+        <v>0.71748599999999996</v>
+      </c>
+      <c r="K125">
+        <v>0.73005100000000001</v>
+      </c>
+      <c r="L125">
+        <v>0.74664900000000001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D126" t="s">
+        <v>20</v>
+      </c>
+      <c r="E126">
+        <v>10</v>
+      </c>
+      <c r="F126">
+        <v>255.07612499999999</v>
+      </c>
+      <c r="G126">
+        <v>244.72893300000001</v>
+      </c>
+      <c r="H126">
+        <v>111.07817900000001</v>
+      </c>
+      <c r="I126">
+        <v>144.961254</v>
+      </c>
+      <c r="J126">
+        <v>152.35291799999999</v>
+      </c>
+      <c r="K126">
+        <v>221.50240600000001</v>
+      </c>
+      <c r="L126">
+        <v>916.10995300000002</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D127" t="s">
+        <v>21</v>
+      </c>
+      <c r="E127">
+        <v>10</v>
+      </c>
+      <c r="F127">
+        <v>29.232741999999998</v>
+      </c>
+      <c r="G127">
+        <v>1.381607</v>
+      </c>
+      <c r="H127">
+        <v>26.608084000000002</v>
+      </c>
+      <c r="I127">
+        <v>28.868952</v>
+      </c>
+      <c r="J127">
+        <v>29.257470000000001</v>
+      </c>
+      <c r="K127">
+        <v>30.155736999999998</v>
+      </c>
+      <c r="L127">
+        <v>31.140429999999999</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>14</v>
+      </c>
+      <c r="B128" t="s">
+        <v>9</v>
+      </c>
+      <c r="C128" t="s">
+        <v>10</v>
+      </c>
+      <c r="D128" t="s">
+        <v>15</v>
+      </c>
+      <c r="E128">
+        <v>10</v>
+      </c>
+      <c r="F128">
+        <v>0.720167</v>
+      </c>
+      <c r="G128">
+        <v>1.7794999999999998E-2</v>
+      </c>
+      <c r="H128">
+        <v>0.68314200000000003</v>
+      </c>
+      <c r="I128">
+        <v>0.71208300000000002</v>
+      </c>
+      <c r="J128">
+        <v>0.72403499999999998</v>
+      </c>
+      <c r="K128">
+        <v>0.72974000000000006</v>
+      </c>
+      <c r="L128">
+        <v>0.74543000000000004</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D129" t="s">
+        <v>16</v>
+      </c>
+      <c r="E129">
+        <v>10</v>
+      </c>
+      <c r="F129">
+        <v>0.52860099999999999</v>
+      </c>
+      <c r="G129">
+        <v>1.9858000000000001E-2</v>
+      </c>
+      <c r="H129">
+        <v>0.496139</v>
+      </c>
+      <c r="I129">
+        <v>0.51687899999999998</v>
+      </c>
+      <c r="J129">
+        <v>0.52915000000000001</v>
+      </c>
+      <c r="K129">
+        <v>0.54106100000000001</v>
+      </c>
+      <c r="L129">
+        <v>0.56429300000000004</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D130" t="s">
+        <v>17</v>
+      </c>
+      <c r="E130">
+        <v>10</v>
+      </c>
+      <c r="F130">
+        <v>0.62966</v>
+      </c>
+      <c r="G130">
+        <v>5.3172999999999998E-2</v>
+      </c>
+      <c r="H130">
+        <v>0.55323999999999995</v>
+      </c>
+      <c r="I130">
+        <v>0.58866300000000005</v>
+      </c>
+      <c r="J130">
+        <v>0.622359</v>
+      </c>
+      <c r="K130">
+        <v>0.65893900000000005</v>
+      </c>
+      <c r="L130">
+        <v>0.71355100000000005</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D131" t="s">
+        <v>18</v>
+      </c>
+      <c r="E131">
+        <v>10</v>
+      </c>
+      <c r="F131">
+        <v>0.36416900000000002</v>
+      </c>
+      <c r="G131">
+        <v>1.1665999999999999E-2</v>
+      </c>
+      <c r="H131">
+        <v>0.33959499999999998</v>
+      </c>
+      <c r="I131">
+        <v>0.35995199999999999</v>
+      </c>
+      <c r="J131">
+        <v>0.36381799999999997</v>
+      </c>
+      <c r="K131">
+        <v>0.36973600000000001</v>
+      </c>
+      <c r="L131">
+        <v>0.38302999999999998</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D132" t="s">
+        <v>19</v>
+      </c>
+      <c r="E132">
+        <v>10</v>
+      </c>
+      <c r="F132">
+        <v>0.719835</v>
+      </c>
+      <c r="G132">
+        <v>1.7839000000000001E-2</v>
+      </c>
+      <c r="H132">
+        <v>0.68310599999999999</v>
+      </c>
+      <c r="I132">
+        <v>0.71159700000000004</v>
+      </c>
+      <c r="J132">
+        <v>0.72385699999999997</v>
+      </c>
+      <c r="K132">
+        <v>0.72965899999999995</v>
+      </c>
+      <c r="L132">
+        <v>0.745421</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D133" t="s">
+        <v>20</v>
+      </c>
+      <c r="E133">
+        <v>10</v>
+      </c>
+      <c r="F133">
+        <v>254.93240299999999</v>
+      </c>
+      <c r="G133">
+        <v>234.42655300000001</v>
+      </c>
+      <c r="H133">
+        <v>125.716865</v>
+      </c>
+      <c r="I133">
+        <v>136.93311</v>
+      </c>
+      <c r="J133">
+        <v>171.54204300000001</v>
+      </c>
+      <c r="K133">
+        <v>224.23959199999999</v>
+      </c>
+      <c r="L133">
+        <v>894.77556700000002</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D134" t="s">
+        <v>21</v>
+      </c>
+      <c r="E134">
+        <v>10</v>
+      </c>
+      <c r="F134">
+        <v>29.277483</v>
+      </c>
+      <c r="G134">
+        <v>1.192456</v>
+      </c>
+      <c r="H134">
+        <v>27.567556</v>
+      </c>
+      <c r="I134">
+        <v>28.664646999999999</v>
+      </c>
+      <c r="J134">
+        <v>29.060604000000001</v>
+      </c>
+      <c r="K134">
+        <v>29.735956999999999</v>
+      </c>
+      <c r="L134">
+        <v>31.699922999999998</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>14</v>
+      </c>
+      <c r="B135" t="s">
+        <v>10</v>
+      </c>
+      <c r="C135" t="s">
+        <v>10</v>
+      </c>
+      <c r="D135" t="s">
+        <v>15</v>
+      </c>
+      <c r="E135">
+        <v>10</v>
+      </c>
+      <c r="F135">
+        <v>0.71952300000000002</v>
+      </c>
+      <c r="G135">
+        <v>1.8277000000000002E-2</v>
+      </c>
+      <c r="H135">
+        <v>0.67220599999999997</v>
+      </c>
+      <c r="I135">
+        <v>0.71882599999999996</v>
+      </c>
+      <c r="J135">
+        <v>0.72259600000000002</v>
+      </c>
+      <c r="K135">
+        <v>0.72637200000000002</v>
+      </c>
+      <c r="L135">
+        <v>0.73859799999999998</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D136" t="s">
+        <v>16</v>
+      </c>
+      <c r="E136">
+        <v>10</v>
+      </c>
+      <c r="F136">
+        <v>0.52976500000000004</v>
+      </c>
+      <c r="G136">
+        <v>2.3369000000000001E-2</v>
+      </c>
+      <c r="H136">
+        <v>0.49768000000000001</v>
+      </c>
+      <c r="I136">
+        <v>0.50776299999999996</v>
+      </c>
+      <c r="J136">
+        <v>0.53200700000000001</v>
+      </c>
+      <c r="K136">
+        <v>0.54719200000000001</v>
+      </c>
+      <c r="L136">
+        <v>0.55904500000000001</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D137" t="s">
+        <v>17</v>
+      </c>
+      <c r="E137">
+        <v>10</v>
+      </c>
+      <c r="F137">
+        <v>0.63186399999999998</v>
+      </c>
+      <c r="G137">
+        <v>6.1768000000000003E-2</v>
+      </c>
+      <c r="H137">
+        <v>0.53598199999999996</v>
+      </c>
+      <c r="I137">
+        <v>0.57812699999999995</v>
+      </c>
+      <c r="J137">
+        <v>0.64555600000000002</v>
+      </c>
+      <c r="K137">
+        <v>0.67459400000000003</v>
+      </c>
+      <c r="L137">
+        <v>0.71414699999999998</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D138" t="s">
+        <v>18</v>
+      </c>
+      <c r="E138">
+        <v>10</v>
+      </c>
+      <c r="F138">
+        <v>0.365089</v>
+      </c>
+      <c r="G138">
+        <v>1.1894E-2</v>
+      </c>
+      <c r="H138">
+        <v>0.34591699999999997</v>
+      </c>
+      <c r="I138">
+        <v>0.35902200000000001</v>
+      </c>
+      <c r="J138">
+        <v>0.36374000000000001</v>
+      </c>
+      <c r="K138">
+        <v>0.37446600000000002</v>
+      </c>
+      <c r="L138">
+        <v>0.38108500000000001</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D139" t="s">
+        <v>19</v>
+      </c>
+      <c r="E139">
+        <v>10</v>
+      </c>
+      <c r="F139">
+        <v>0.71896899999999997</v>
+      </c>
+      <c r="G139">
+        <v>1.8912000000000002E-2</v>
+      </c>
+      <c r="H139">
+        <v>0.66986999999999997</v>
+      </c>
+      <c r="I139">
+        <v>0.718391</v>
+      </c>
+      <c r="J139">
+        <v>0.72259399999999996</v>
+      </c>
+      <c r="K139">
+        <v>0.72633800000000004</v>
+      </c>
+      <c r="L139">
+        <v>0.73855599999999999</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D140" t="s">
+        <v>20</v>
+      </c>
+      <c r="E140">
+        <v>10</v>
+      </c>
+      <c r="F140">
+        <v>267.117143</v>
+      </c>
+      <c r="G140">
+        <v>268.94511899999998</v>
+      </c>
+      <c r="H140">
+        <v>105.75403900000001</v>
+      </c>
+      <c r="I140">
+        <v>145.67913899999999</v>
+      </c>
+      <c r="J140">
+        <v>178.88529500000001</v>
+      </c>
+      <c r="K140">
+        <v>235.69852</v>
+      </c>
+      <c r="L140">
+        <v>1008.957758</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D141" t="s">
+        <v>21</v>
+      </c>
+      <c r="E141">
+        <v>10</v>
+      </c>
+      <c r="F141">
+        <v>29.323266</v>
+      </c>
+      <c r="G141">
+        <v>0.99495400000000001</v>
+      </c>
+      <c r="H141">
+        <v>27.767921000000001</v>
+      </c>
+      <c r="I141">
+        <v>28.561109999999999</v>
+      </c>
+      <c r="J141">
+        <v>29.259844999999999</v>
+      </c>
+      <c r="K141">
+        <v>29.854966999999998</v>
+      </c>
+      <c r="L141">
+        <v>31.035706000000001</v>
       </c>
     </row>
   </sheetData>
